--- a/results/20250402/evaluation_scene_noisy_0.2.xlsx
+++ b/results/20250402/evaluation_scene_noisy_0.2.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.414</v>
+        <v>0.82794</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02626</v>
+        <v>0.00716</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.28103</v>
+        <v>0.36818</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02761</v>
+        <v>0.02333</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.40598</v>
+        <v>0.83023</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02785</v>
+        <v>0.00777</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.29042</v>
+        <v>0.4177</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02512</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.41475</v>
+        <v>0.82802</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02576</v>
+        <v>0.00697</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.28161</v>
+        <v>0.3676</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02667</v>
+        <v>0.02275</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.40651</v>
+        <v>0.83079</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02684</v>
+        <v>0.00778</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.29117</v>
+        <v>0.42019</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0248</v>
+        <v>0.02377</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.58668</v>
+        <v>0.78583</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02319</v>
+        <v>0.00611</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.44089</v>
+        <v>0.19685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02369</v>
+        <v>0.01948</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.58496</v>
+        <v>0.78638</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02353</v>
+        <v>0.00607</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.44205</v>
+        <v>0.20366</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02387</v>
+        <v>0.01931</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.58674</v>
+        <v>0.78582</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0231</v>
+        <v>0.00612</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.44081</v>
+        <v>0.19685</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02377</v>
+        <v>0.01948</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.58503</v>
+        <v>0.78633</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02352</v>
+        <v>0.00604</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.44205</v>
+        <v>0.20358</v>
       </c>
       <c r="I41" t="n">
-        <v>0.024</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.41713</v>
+        <v>0.79574</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02903</v>
+        <v>0.009719999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.22867</v>
+        <v>0.23332</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02745</v>
+        <v>0.01805</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.38836</v>
+        <v>0.80536</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02671</v>
+        <v>0.00978</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.23341</v>
+        <v>0.34075</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02377</v>
+        <v>0.02601</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.41808</v>
+        <v>0.79611</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02884</v>
+        <v>0.00963</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.229</v>
+        <v>0.23332</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02779</v>
+        <v>0.01808</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.38801</v>
+        <v>0.8089</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02711</v>
+        <v>0.01002</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.23657</v>
+        <v>0.35438</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02387</v>
+        <v>0.02522</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.5325299999999999</v>
+        <v>0.77574</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02631</v>
+        <v>0.00787</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.3376</v>
+        <v>0.14342</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0226</v>
+        <v>0.02251</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.52085</v>
+        <v>0.77847</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02408</v>
+        <v>0.00763</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.33785</v>
+        <v>0.17774</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02291</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.5329199999999999</v>
+        <v>0.77578</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0264</v>
+        <v>0.00788</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.33802</v>
+        <v>0.14342</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02268</v>
+        <v>0.02251</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.52159</v>
+        <v>0.77872</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02375</v>
+        <v>0.00762</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.33852</v>
+        <v>0.17832</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02278</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.4281</v>
+        <v>0.82436</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01896</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.29032</v>
+        <v>0.35763</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02263</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.42246</v>
+        <v>0.82658</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02019</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.29863</v>
+        <v>0.39842</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02129</v>
+        <v>0.02239</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.42856</v>
+        <v>0.82461</v>
       </c>
       <c r="I110" t="n">
-        <v>0.01871</v>
+        <v>0.00779</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.29115</v>
+        <v>0.35879</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02181</v>
+        <v>0.02272</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.42304</v>
+        <v>0.82698</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0202</v>
+        <v>0.00797</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.29979</v>
+        <v>0.39992</v>
       </c>
       <c r="I113" t="n">
-        <v>0.02131</v>
+        <v>0.02328</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.62027</v>
+        <v>0.77855</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02131</v>
+        <v>0.00627</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.47752</v>
+        <v>0.16909</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02355</v>
+        <v>0.02006</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.61991</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02146</v>
+        <v>0.00631</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.47752</v>
+        <v>0.1715</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0231</v>
+        <v>0.02019</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.62029</v>
+        <v>0.77857</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0215</v>
+        <v>0.00625</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.47752</v>
+        <v>0.16909</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02349</v>
+        <v>0.02006</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.62002</v>
+        <v>0.77873</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02159</v>
+        <v>0.00629</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.47769</v>
+        <v>0.17167</v>
       </c>
       <c r="I121" t="n">
-        <v>0.02318</v>
+        <v>0.02012</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.4017</v>
+        <v>0.80875</v>
       </c>
       <c r="I146" t="n">
-        <v>0.03247</v>
+        <v>0.00725</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.22742</v>
+        <v>0.26997</v>
       </c>
       <c r="I147" t="n">
-        <v>0.03009</v>
+        <v>0.01943</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.37701</v>
+        <v>0.81526</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0315</v>
+        <v>0.00886</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.23299</v>
+        <v>0.36951</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0268</v>
+        <v>0.02875</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.4026</v>
+        <v>0.8089</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03157</v>
+        <v>0.00701</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.22875</v>
+        <v>0.26997</v>
       </c>
       <c r="I151" t="n">
-        <v>0.02985</v>
+        <v>0.01961</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.37456</v>
+        <v>0.81912</v>
       </c>
       <c r="I152" t="n">
-        <v>0.03107</v>
+        <v>0.009209999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.23457</v>
+        <v>0.38538</v>
       </c>
       <c r="I153" t="n">
-        <v>0.02734</v>
+        <v>0.03063</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.52515</v>
+        <v>0.78178</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03412</v>
+        <v>0.008109999999999999</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.33137</v>
+        <v>0.15073</v>
       </c>
       <c r="I155" t="n">
-        <v>0.03635</v>
+        <v>0.02086</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.51723</v>
+        <v>0.78347</v>
       </c>
       <c r="I156" t="n">
-        <v>0.03493</v>
+        <v>0.008370000000000001</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.33137</v>
+        <v>0.17425</v>
       </c>
       <c r="I157" t="n">
-        <v>0.03725</v>
+        <v>0.02438</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.52577</v>
+        <v>0.7819700000000001</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0346</v>
+        <v>0.008030000000000001</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.33187</v>
+        <v>0.15073</v>
       </c>
       <c r="I159" t="n">
-        <v>0.03688</v>
+        <v>0.02086</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.51753</v>
+        <v>0.78377</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03478</v>
+        <v>0.008460000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.33187</v>
+        <v>0.17441</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03727</v>
+        <v>0.02438</v>
       </c>
     </row>
   </sheetData>
